--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2480757-5986-7A41-89B9-2AFC2246B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC35DD-2FF6-484C-946D-3D2AC066BA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="234">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2310,6 +2310,50 @@
   </si>
   <si>
     <t>blanco.restgenerator.valueobject.BusinessApiRequestHeader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arrayList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CanonicalNameに置き換えられて、import文が自動生成されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ArrayList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hashMap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String,String</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3438,10 +3482,85 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3453,9 +3572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3466,12 +3582,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3504,57 +3614,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3564,22 +3623,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3598,12 +3645,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3611,6 +3652,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,168 +4250,168 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="177" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="177"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="177"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="177"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="177"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="157" t="s">
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="157"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="96" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="157" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="157"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="156" t="s">
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="157"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="178" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="115"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
@@ -4387,15 +4431,15 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="102" t="s">
@@ -4439,28 +4483,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="174" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="170"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -4471,12 +4515,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="117"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4487,12 +4531,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="118"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -4503,12 +4547,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="119"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -4521,28 +4565,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="173"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
@@ -4555,14 +4599,14 @@
       <c r="A32" s="117">
         <v>1</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4573,12 +4617,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="118"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -4589,12 +4633,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="119"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -4619,28 +4663,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="173"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
       <c r="J37" s="106"/>
@@ -4651,12 +4695,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="117"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="170"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4667,12 +4711,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="118"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="171"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
@@ -4683,12 +4727,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="119"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="172"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
@@ -4723,221 +4767,296 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="136" t="s">
+      <c r="B43" s="167"/>
+      <c r="C43" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="144"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="145"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="160"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="135"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="144"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="135"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="144"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="135"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="144"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="135"/>
+      <c r="A48" s="142"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="144"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="135"/>
+      <c r="A49" s="142"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="144"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="144"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="135"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="144"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="135"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="144"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="135"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="144"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="135"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="144"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="135"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="144"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="134"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="135"/>
+      <c r="A56" s="142"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="144"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="134"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="135"/>
+      <c r="A57" s="142"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="135"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="144"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="134"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="135"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="134"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="135"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="135"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="134"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="135"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="134"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="135"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="135"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="144"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="134"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="135"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="144"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="134"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="135"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="144"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="134"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="135"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="158"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="158"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="159"/>
+      <c r="A68" s="145"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="147"/>
       <c r="F68" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -4954,81 +5073,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5516,10 +5560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5713,10 +5757,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -5727,10 +5771,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5762,28 +5806,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5795,12 +5839,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5812,12 +5856,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5829,12 +5873,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5848,28 +5892,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5883,14 +5927,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5902,12 +5946,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5919,12 +5963,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5951,28 +5995,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5984,12 +6028,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -6001,12 +6045,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -6018,12 +6062,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -6083,16 +6127,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="187" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -6104,14 +6148,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -6120,15 +6164,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6144,7 +6188,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6179,7 +6223,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="10">
-        <f t="shared" ref="A42:A47" si="0">A41+1</f>
+        <f t="shared" ref="A42:A51" si="0">A41+1</f>
         <v>2</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -6346,11 +6390,22 @@
       <c r="O47" s="14"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>226</v>
+      </c>
       <c r="F48" s="26"/>
       <c r="G48" s="87"/>
       <c r="H48" s="26"/>
@@ -6363,28 +6418,50 @@
       <c r="O48" s="14"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>226</v>
+      </c>
       <c r="F49" s="26"/>
       <c r="G49" s="87"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="F50" s="26"/>
       <c r="G50" s="87"/>
       <c r="H50" s="26"/>
@@ -6397,11 +6474,22 @@
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="F51" s="26"/>
       <c r="G51" s="87"/>
       <c r="H51" s="26"/>
@@ -6423,11 +6511,11 @@
       <c r="G52" s="87"/>
       <c r="H52" s="26"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15">
@@ -6474,11 +6562,11 @@
       <c r="G55" s="87"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
@@ -6525,11 +6613,11 @@
       <c r="G58" s="87"/>
       <c r="H58" s="26"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
       <c r="O58" s="14"/>
     </row>
     <row r="59" spans="1:15">
@@ -6559,11 +6647,11 @@
       <c r="G60" s="87"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
@@ -6618,37 +6706,75 @@
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="10"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="10"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="14"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6665,6 +6791,19 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6674,7 +6813,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I63 I64" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I67" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -6691,7 +6830,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G41:G64</xm:sqref>
+          <xm:sqref>G41:G67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -6873,10 +7012,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -6889,10 +7028,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6924,28 +7063,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6956,12 +7095,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6972,12 +7111,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6988,12 +7127,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -7008,29 +7147,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -7044,14 +7183,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -7062,12 +7201,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -7078,12 +7217,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7110,29 +7249,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="173"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7144,12 +7283,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7161,12 +7300,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7177,12 +7316,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7232,60 +7371,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7301,7 +7440,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7775,6 +7914,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7791,18 +7942,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8045,10 +8184,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -8059,10 +8198,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8094,28 +8233,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8127,12 +8266,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8144,12 +8283,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8161,12 +8300,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8180,28 +8319,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8215,14 +8354,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8234,12 +8373,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8251,12 +8390,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8283,28 +8422,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8316,12 +8455,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8333,12 +8472,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8350,12 +8489,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8415,16 +8554,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="187" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -8436,14 +8575,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -8452,15 +8591,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8476,7 +8615,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8970,23 +9109,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8999,6 +9121,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9210,10 +9349,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -9226,10 +9365,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9261,28 +9400,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9293,12 +9432,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9309,12 +9448,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9325,12 +9464,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9345,29 +9484,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9381,14 +9520,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9399,12 +9538,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9415,12 +9554,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9447,29 +9586,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="173"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9481,12 +9620,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9498,12 +9637,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9514,12 +9653,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9569,60 +9708,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="193"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9638,7 +9777,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -10114,23 +10253,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10142,6 +10264,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10384,10 +10523,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -10398,10 +10537,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10433,28 +10572,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10466,12 +10605,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10483,12 +10622,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10500,12 +10639,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10519,28 +10658,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10554,14 +10693,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10573,12 +10712,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10590,12 +10729,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10622,28 +10761,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10655,12 +10794,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10672,12 +10811,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10689,12 +10828,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10754,16 +10893,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="187" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -10775,14 +10914,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -10791,15 +10930,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10815,7 +10954,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -11309,23 +11448,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11338,6 +11460,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11549,10 +11688,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -11565,10 +11704,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11600,28 +11739,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11632,12 +11771,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11648,12 +11787,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11664,12 +11803,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11684,29 +11823,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11720,14 +11859,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11738,12 +11877,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11754,12 +11893,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11786,29 +11925,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="173"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11820,12 +11959,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11837,12 +11976,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11853,12 +11992,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11908,60 +12047,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -11977,7 +12116,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -12453,23 +12592,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12481,6 +12603,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12727,10 +12866,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -12741,10 +12880,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12776,28 +12915,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12809,12 +12948,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12826,12 +12965,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12843,12 +12982,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12862,28 +13001,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12897,14 +13036,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12916,12 +13055,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12933,12 +13072,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12965,28 +13104,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -12998,12 +13137,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -13015,12 +13154,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -13032,12 +13171,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13099,16 +13238,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="187" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -13120,14 +13259,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -13136,15 +13275,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13160,7 +13299,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13654,23 +13793,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13683,6 +13805,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13739,7 +13878,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -13894,10 +14033,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -13910,10 +14049,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13945,28 +14084,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13977,12 +14116,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -13993,12 +14132,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -14009,12 +14148,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -14029,29 +14168,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -14065,14 +14204,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14083,12 +14222,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14099,12 +14238,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14131,29 +14270,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="173"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14165,12 +14304,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14182,12 +14321,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14198,12 +14337,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14253,60 +14392,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14322,7 +14461,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64"/>
@@ -14734,24 +14873,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14762,6 +14883,24 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
